--- a/数据整理/stocks/港股/00322-康师傅控股.xlsx
+++ b/数据整理/stocks/港股/00322-康师傅控股.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,13 +863,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.89</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00322-康师傅控股.xlsx
+++ b/数据整理/stocks/港股/00322-康师傅控股.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>118001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达亚洲精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5045</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -541,264 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2402</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009128</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1004</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>513690</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时恒生港股通高股息率ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011647</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011648</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009129</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>71.30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+      <c r="D3" t="n">
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +663,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +703,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -991,14 +741,264 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.89</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00322-康师傅控股.xlsx
+++ b/数据整理/stocks/港股/00322-康师傅控股.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +484,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.89</v>
       </c>
     </row>
@@ -571,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>011179</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>浙商智选食品饮料股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -609,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>011180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>浙商智选食品饮料股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -647,6 +664,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00322-康师傅控股.xlsx
+++ b/数据整理/stocks/港股/00322-康师傅控股.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +501,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.89</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011179</t>
+          <t>920011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票A</t>
+          <t>中金安心回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>79.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -626,36 +643,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011180</t>
+          <t>920921</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票C</t>
+          <t>中金安心回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>79.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -720,36 +813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>011179</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>浙商智选食品饮料股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -758,36 +851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>011180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>浙商智选食品饮料股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -796,6 +889,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
